--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almog.Amos\Documents\UiPath\SOX Check Files\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781C52B1-6FBE-4897-8A2C-BAA82036C9CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08E971-695B-4D68-B21D-CC628F085633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="2175" windowWidth="20910" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -133,18 +133,12 @@
     <t>TamplatesHe</t>
   </si>
   <si>
-    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\טמפלייטים\he</t>
-  </si>
-  <si>
     <t>Hebrew email templates</t>
   </si>
   <si>
     <t>TamplatesEn</t>
   </si>
   <si>
-    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\טמפלייטים\en</t>
-  </si>
-  <si>
     <t>English email template</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>\Documents\Robert the SOX robot\</t>
+  </si>
+  <si>
+    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\טמפלייטים\he\</t>
+  </si>
+  <si>
+    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\טמפלייטים\en\</t>
   </si>
 </sst>
 </file>
@@ -536,13 +536,13 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -617,37 +617,37 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almog.Amos\Documents\UiPath\SOX Check Files\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08E971-695B-4D68-B21D-CC628F085633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51D6F9-2E45-423C-AD72-174FD9DCE247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="2175" windowWidth="20910" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="1785" windowWidth="20910" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\טמפלייטים\en\</t>
+  </si>
+  <si>
+    <t>InnerAddresses</t>
+  </si>
+  <si>
+    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\InnerDt.xlsx</t>
   </si>
 </sst>
 </file>
@@ -536,12 +542,12 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
@@ -650,7 +656,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almog.Amos\Documents\UiPath\SOX Check Files\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYIL.RPA01\Documents\UiPath\SOX_Stage_2-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51D6F9-2E45-423C-AD72-174FD9DCE247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65344CC7-ED34-4D2C-AA75-6A0A9EC1099C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1785" windowWidth="20910" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -154,16 +154,16 @@
     <t>\Documents\Robert the SOX robot\</t>
   </si>
   <si>
-    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\טמפלייטים\he\</t>
-  </si>
-  <si>
-    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\טמפלייטים\en\</t>
-  </si>
-  <si>
     <t>InnerAddresses</t>
   </si>
   <si>
-    <t>C:\Users\Almog.Amos\OneDrive - EY\Desktop\SOX\InnerDt.xlsx</t>
+    <t>C:\Users\EYIL.RPA01\Desktop\SOX\טמפלייטים\en\</t>
+  </si>
+  <si>
+    <t>C:\Users\EYIL.RPA01\Desktop\SOX\טמפלייטים\he\</t>
+  </si>
+  <si>
+    <t>C:\Users\EYIL.RPA01\Desktop\SOX\InnerDt.xlsx</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -623,7 +623,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
